--- a/EDR_Report/bin/Debug/net6.0/Report/edr1cb109.xlsx
+++ b/EDR_Report/bin/Debug/net6.0/Report/edr1cb109.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\edr-report\EDR_Report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA9C6BC-5067-445E-82C3-4C9EB96BA7C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF96DF-7B90-4418-BE2D-2DB809B582C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>公共工程施工日誌</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -285,9 +285,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$note$</t>
-  </si>
-  <si>
     <t>$project_name$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -429,26 +426,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>(二)其他事項:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(一)施工前檢查事項:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$m51$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$m52$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$m54$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>$note_c$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -461,10 +438,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$m53$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>$man_col1_2$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -485,16 +458,44 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$co_co5_qdp$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>$co_col5_qdp$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$co_col6_qdp$</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$today_exp_percent$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(一)施工前檢查事項:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$m51$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$m52$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$m53$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$note$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(二)其他事項:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$m54$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -635,7 +636,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1218,37 +1219,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1264,7 +1234,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1388,320 +1358,330 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1724,42 +1704,7 @@
     <cellStyle name="千分位[0]" xfId="1" builtinId="6"/>
     <cellStyle name="千分位_進度計算" xfId="4" xr:uid="{EB264E5C-550E-4623-9E0A-3A3E7C897591}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2089,10 +2034,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:O30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2115,49 +2060,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2195,81 +2140,81 @@
       <c r="K4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="115" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117" t="s">
+      <c r="B5" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="64"/>
+      <c r="L5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="119"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="106" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="122" t="s">
+      <c r="K6" s="69"/>
+      <c r="L6" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="127">
+      <c r="B7" s="74"/>
+      <c r="C7" s="75">
         <v>0</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
@@ -2282,1008 +2227,1011 @@
       <c r="I7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="126" t="s">
+      <c r="J7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="128" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="105" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106" t="s">
+      <c r="I8" s="79"/>
+      <c r="J8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107" t="s">
+      <c r="K8" s="69"/>
+      <c r="L8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="13">
         <v>2744400000</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="105" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107" t="s">
+      <c r="I9" s="79"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="109"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="91"/>
     </row>
     <row r="11" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A11" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
+      <c r="A11" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="146"/>
     </row>
     <row r="12" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62" t="s">
+      <c r="J12" s="48"/>
+      <c r="K12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="75"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="86"/>
     </row>
     <row r="13" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="75"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="86"/>
     </row>
     <row r="14" spans="1:15" ht="16.8" thickBot="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="96"/>
     </row>
     <row r="15" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88" t="s">
+      <c r="H15" s="98"/>
+      <c r="I15" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88" t="s">
+      <c r="J15" s="98"/>
+      <c r="K15" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88" t="s">
+      <c r="L15" s="98"/>
+      <c r="M15" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="97"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.8" thickBot="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="107"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.8" thickBot="1">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="83"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A18" s="84" t="s">
+      <c r="G17" s="118"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A18" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="86"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A19" s="74" t="s">
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62" t="s">
+      <c r="J19" s="48"/>
+      <c r="K19" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62" t="s">
+      <c r="L19" s="48"/>
+      <c r="M19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="67" t="s">
+      <c r="N19" s="48"/>
+      <c r="O19" s="86"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="111"/>
+      <c r="M20" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="72"/>
-      <c r="O20" s="73"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="67" t="s">
+      <c r="N20" s="113"/>
+      <c r="O20" s="114"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62" t="s">
+      <c r="H21" s="48"/>
+      <c r="I21" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="111"/>
+      <c r="M21" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="69" t="s">
+      <c r="N21" s="113"/>
+      <c r="O21" s="114"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="114"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A23" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A24" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="48"/>
+      <c r="M24" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A25" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="139"/>
+      <c r="C25" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="48"/>
+      <c r="M25" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" s="72"/>
-      <c r="O21" s="73"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="73"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A23" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="135"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="62"/>
-      <c r="M24" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="137"/>
-      <c r="O24" s="138"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A25" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63" t="s">
+      <c r="N25" s="50"/>
+      <c r="O25" s="54"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A26" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="139"/>
+      <c r="C26" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A26" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="62"/>
-      <c r="M26" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="64"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A27" s="55" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="48"/>
+      <c r="M26" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" s="50"/>
+      <c r="O26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A27" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="57"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.2" customHeight="1">
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="134"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.2" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="48"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="58" t="s">
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="148"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="60"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="49" t="s">
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="134"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A30" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="45"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="142"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="43"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.2" customHeight="1">
+      <c r="A34" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="43"/>
+    </row>
+    <row r="35" spans="1:15" ht="18.600000000000001" customHeight="1">
+      <c r="A35" s="44"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="43"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="137"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="51"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="51"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="49" t="s">
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="128"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.2" customHeight="1">
+      <c r="A38" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="131"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="51"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="51"/>
-    </row>
-    <row r="36" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="51"/>
-    </row>
-    <row r="37" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="51"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="60"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="51"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="128"/>
     </row>
     <row r="40" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A40" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="51"/>
-    </row>
-    <row r="42" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A42" s="52" t="s">
+      <c r="A40" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="54"/>
-    </row>
-    <row r="43" spans="1:15" ht="16.8" thickBot="1">
-      <c r="A43" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="141"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="143"/>
-      <c r="O44" s="144"/>
-    </row>
-    <row r="45" spans="1:15" ht="16.8" thickBot="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="133"/>
-    </row>
-    <row r="46" spans="1:15" ht="20.399999999999999" customHeight="1">
-      <c r="A46" s="113" t="s">
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="131"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.8" thickBot="1">
+      <c r="A41" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="57"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A42" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="60"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.8" customHeight="1">
+      <c r="A43" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+    </row>
+    <row r="44" spans="1:15" ht="15">
+      <c r="A44" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+    </row>
+    <row r="45" spans="1:15" ht="15">
+      <c r="A45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+    </row>
+    <row r="46" spans="1:15" ht="15">
+      <c r="A46" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
     </row>
     <row r="47" spans="1:15" ht="15">
-      <c r="A47" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
+      <c r="A47" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
     </row>
     <row r="48" spans="1:15" ht="15">
-      <c r="A48" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
+      <c r="A48" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
     </row>
     <row r="49" spans="1:15" ht="15">
-      <c r="A49" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
+      <c r="A49" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
     </row>
     <row r="50" spans="1:15" ht="15">
-      <c r="A50" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
-    </row>
-    <row r="51" spans="1:15" ht="15">
-      <c r="A51" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
-    </row>
-    <row r="52" spans="1:15" ht="15">
-      <c r="A52" s="113" t="s">
+      <c r="A50" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
-    </row>
-    <row r="53" spans="1:15" ht="15">
-      <c r="A53" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="A23:O23"/>
+  <mergeCells count="122">
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A10:O10"/>
     <mergeCell ref="A47:O47"/>
     <mergeCell ref="A48:O48"/>
     <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A34:O34"/>
     <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A53:O53"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -3303,138 +3251,60 @@
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A44:O44"/>
     <mergeCell ref="A45:O45"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="A38:O38"/>
     <mergeCell ref="A39:O39"/>
     <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
     <mergeCell ref="A27:O27"/>
     <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A37:O37"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A36:O36"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A41:O41 A43:O43 A25:O25 A39:O39">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:O36">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A39:O39 A41:O41 A25:O25 A37:O37 H34:O34">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:O26">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:O37">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:O30">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:O31">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:O33">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:O32">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:O35">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:O34">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="H33:O33">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:O32">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3450,8 +3320,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3460,129 +3330,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
       <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1">
       <c r="A2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="D2" s="150"/>
+      <c r="E2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="151" t="s">
         <v>78</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1">
       <c r="A3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="F3" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="147"/>
+        <v>82</v>
+      </c>
+      <c r="H3" s="151"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1">
       <c r="A4" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="147"/>
+        <v>87</v>
+      </c>
+      <c r="H4" s="151"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1">
       <c r="A5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>91</v>
-      </c>
       <c r="D5" s="39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.2" customHeight="1">
       <c r="A6" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>91</v>
-      </c>
       <c r="D6" s="39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3464,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="12" operator="equal">
@@ -3602,7 +3472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="10" operator="equal">

--- a/EDR_Report/bin/Debug/net6.0/Report/edr1cb109.xlsx
+++ b/EDR_Report/bin/Debug/net6.0/Report/edr1cb109.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\edr-report\EDR_Report\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\edr-report-core\EDR_Report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF96DF-7B90-4418-BE2D-2DB809B582C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF250FC-1FBC-40B7-A552-27FD14D1E414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,13 +243,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$spread_day_t2$</t>
-  </si>
-  <si>
-    <t>$t_day_t2$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>$exp_percent_t3$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -495,6 +488,14 @@
   </si>
   <si>
     <t>$m54$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$t_day_t3$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$extend_day_t2$</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1235,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1364,27 +1365,260 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="184" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1393,14 +1627,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1419,201 +1645,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1649,39 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2034,10 +2032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2060,49 +2058,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="143"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2140,86 +2138,86 @@
       <c r="K4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="144" t="s">
+      <c r="L4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="s">
+      <c r="B5" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="111"/>
+      <c r="L5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="66"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="D6" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70" t="s">
+      <c r="K6" s="100"/>
+      <c r="L6" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="72"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75">
+      <c r="B7" s="120"/>
+      <c r="C7" s="121">
         <v>0</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>15</v>
@@ -2227,160 +2225,160 @@
       <c r="I7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="120"/>
+      <c r="L7" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="69" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="69" t="s">
+      <c r="G8" s="100"/>
+      <c r="H8" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="80" t="s">
+      <c r="K8" s="100"/>
+      <c r="L8" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
       <c r="O8" s="13">
         <v>2744400000</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="79" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="80" t="s">
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="91"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
     </row>
     <row r="11" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A11" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="146"/>
+      <c r="A11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48" t="s">
+      <c r="J12" s="59"/>
+      <c r="K12" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48" t="s">
+      <c r="L12" s="59"/>
+      <c r="M12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="86"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="16"/>
       <c r="G13" s="92"/>
       <c r="H13" s="92"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="86"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="69"/>
     </row>
     <row r="14" spans="1:15" ht="16.8" thickBot="1">
       <c r="A14" s="93"/>
@@ -2400,409 +2398,409 @@
       <c r="O14" s="96"/>
     </row>
     <row r="15" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98" t="s">
+      <c r="H15" s="82"/>
+      <c r="I15" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98" t="s">
+      <c r="J15" s="82"/>
+      <c r="K15" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98" t="s">
+      <c r="L15" s="82"/>
+      <c r="M15" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="98"/>
-      <c r="O15" s="99"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="83"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
     </row>
     <row r="17" spans="1:16" ht="16.8" thickBot="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="122"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
     </row>
     <row r="18" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="80"/>
     </row>
     <row r="19" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="59"/>
+      <c r="I19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48" t="s">
+      <c r="J19" s="59"/>
+      <c r="K19" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48" t="s">
+      <c r="L19" s="59"/>
+      <c r="M19" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="86"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="10" t="s">
+      <c r="H20" s="59"/>
+      <c r="I20" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="64"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A23" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="126"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A24" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="127"/>
+      <c r="H24" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="59"/>
+      <c r="M24" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A25" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112" t="s">
+      <c r="G25" s="67"/>
+      <c r="H25" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="59"/>
+      <c r="M25" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="113"/>
-      <c r="O20" s="114"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="38" t="s">
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.2" customHeight="1">
+      <c r="A26" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112" t="s">
+      <c r="G26" s="67"/>
+      <c r="H26" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="113"/>
-      <c r="O21" s="114"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="114"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A23" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A24" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="48"/>
-      <c r="M24" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A25" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="54"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A26" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="54"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="68"/>
     </row>
     <row r="27" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="134"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="144"/>
     </row>
     <row r="28" spans="1:16" ht="16.2" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="147" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="148"/>
+        <v>59</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="134"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="144"/>
     </row>
     <row r="30" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="44"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="47"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="45"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="141"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="142"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
@@ -2813,15 +2811,15 @@
       <c r="O32" s="43"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="140" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
+      <c r="A33" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
       <c r="J33" s="42"/>
@@ -2832,15 +2830,15 @@
       <c r="O33" s="43"/>
     </row>
     <row r="34" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A34" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
+      <c r="A34" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
@@ -2850,310 +2848,391 @@
       <c r="N34" s="42"/>
       <c r="O34" s="43"/>
     </row>
-    <row r="35" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A35" s="44"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="43"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="147"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="137"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="128"/>
-    </row>
-    <row r="38" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A38" s="129" t="s">
+      <c r="A36" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="138"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.2" customHeight="1">
+      <c r="A37" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="131"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="128"/>
-    </row>
-    <row r="40" spans="1:15" ht="16.2" customHeight="1">
-      <c r="A40" s="129" t="s">
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="141"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="138"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.2" customHeight="1">
+      <c r="A39" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="131"/>
-    </row>
-    <row r="41" spans="1:15" ht="16.8" thickBot="1">
-      <c r="A41" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="57"/>
-    </row>
-    <row r="42" spans="1:15" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A42" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" spans="1:15" ht="16.8" customHeight="1">
-      <c r="A43" s="46" t="s">
+      <c r="B39" s="140"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="141"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.8" thickBot="1">
+      <c r="A40" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="132"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A41" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="135"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.8" customHeight="1">
+      <c r="A42" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+    </row>
+    <row r="43" spans="1:15" ht="15">
+      <c r="A43" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+    </row>
+    <row r="44" spans="1:15" ht="15">
+      <c r="A44" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+    </row>
+    <row r="45" spans="1:15" ht="15">
+      <c r="A45" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-    </row>
-    <row r="44" spans="1:15" ht="15">
-      <c r="A44" s="46" t="s">
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+    </row>
+    <row r="46" spans="1:15" ht="15">
+      <c r="A46" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-    </row>
-    <row r="45" spans="1:15" ht="15">
-      <c r="A45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-    </row>
-    <row r="46" spans="1:15" ht="15">
-      <c r="A46" s="46" t="s">
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
+    </row>
+    <row r="47" spans="1:15" ht="15">
+      <c r="A47" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-    </row>
-    <row r="47" spans="1:15" ht="15">
-      <c r="A47" s="46" t="s">
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+    </row>
+    <row r="48" spans="1:15" ht="15">
+      <c r="A48" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-    </row>
-    <row r="48" spans="1:15" ht="15">
-      <c r="A48" s="46" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="107"/>
+    </row>
+    <row r="49" spans="1:15" ht="15">
+      <c r="A49" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-    </row>
-    <row r="49" spans="1:15" ht="15">
-      <c r="A49" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-    </row>
-    <row r="50" spans="1:15" ht="15">
-      <c r="A50" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="H30:O30"/>
     <mergeCell ref="H31:O31"/>
@@ -3178,107 +3257,9 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="A37:O37"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A36:O36"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A39:O39 A41:O41 A25:O25 A37:O37 H34:O34">
+  <conditionalFormatting sqref="A38:O38 A40:O40 A25:O25 A36:O36 H34:O34">
     <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3290,11 +3271,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:O26">
     <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:O35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3330,129 +3306,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickBot="1">
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1">
       <c r="A2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="149"/>
+      <c r="E2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="F2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="H2" s="150" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="151" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1">
       <c r="A3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="27" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="151"/>
+        <v>80</v>
+      </c>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1">
       <c r="A4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>87</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="151"/>
+        <v>85</v>
+      </c>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1">
       <c r="A5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>90</v>
-      </c>
       <c r="D5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>113</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.2" customHeight="1">
       <c r="A6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>90</v>
-      </c>
       <c r="D6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>113</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/EDR_Report/bin/Debug/net6.0/Report/edr1cb109.xlsx
+++ b/EDR_Report/bin/Debug/net6.0/Report/edr1cb109.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\edr-report-core\EDR_Report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF250FC-1FBC-40B7-A552-27FD14D1E414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60DA8A4-FA28-4FF7-915F-08016C14ED66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日報表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">日報表!$A:$O</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">附表!$I$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">附表!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
   <si>
     <t>公共工程施工日誌</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -497,14 +497,19 @@
   <si>
     <t>$extend_day_t2$</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$co_col6_monthtodate$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="[$-404]e&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1221,7 +1226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1234,8 +1239,11 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1344,18 +1352,12 @@
     <xf numFmtId="188" fontId="12" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1366,6 +1368,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1690,34 +1698,23 @@
     <xf numFmtId="188" fontId="14" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般_11月份日報表(11.30)_12月份日報表(12.1)_12月份日報表(12.1)_12月份日報表(至12.22)" xfId="2" xr:uid="{C95207E4-6DE0-4110-9C59-694761822501}"/>
     <cellStyle name="一般_承商日報表單" xfId="3" xr:uid="{797FBA9B-8477-4571-B295-F84F27A33106}"/>
     <cellStyle name="一般_進度計算" xfId="5" xr:uid="{D225B90A-1BCA-4994-ADFE-822677F0DB9B}"/>
+    <cellStyle name="千分位" xfId="6" builtinId="3"/>
     <cellStyle name="千分位[0]" xfId="1" builtinId="6"/>
     <cellStyle name="千分位_進度計算" xfId="4" xr:uid="{EB264E5C-550E-4623-9E0A-3A3E7C897591}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2034,8 +2031,8 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:O40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2183,7 +2180,7 @@
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -2545,7 +2542,7 @@
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="59" t="s">
@@ -2768,7 +2765,7 @@
       <c r="M30" s="46"/>
       <c r="N30" s="46"/>
       <c r="O30" s="47"/>
-      <c r="P30" s="44"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="45" t="s">
@@ -2801,14 +2798,14 @@
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
       <c r="G32" s="46"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="45" t="s">
@@ -2820,14 +2817,14 @@
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="43"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" ht="16.2" customHeight="1">
       <c r="A34" s="45" t="s">
@@ -2839,14 +2836,14 @@
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="46"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="43"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="145" t="s">
@@ -3260,27 +3257,27 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A38:O38 A40:O40 A25:O25 A36:O36 H34:O34">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:O26">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:O33">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:O32">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3296,8 +3293,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3305,13 +3302,13 @@
     <col min="2" max="2" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1">
+    <row r="1" spans="1:8" ht="16.2">
       <c r="E1" s="151" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="151"/>
       <c r="G1" s="151"/>
-      <c r="H1" s="37"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -3393,16 +3390,18 @@
       <c r="C5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="H5" s="36" t="s">
         <v>89</v>
       </c>
@@ -3417,16 +3416,18 @@
       <c r="C6" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="H6" s="36" t="s">
         <v>89</v>
       </c>
@@ -3439,27 +3440,11 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="10" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3471,7 +3456,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.39370078740157483" right="0" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"標楷體,標準"&amp;14鳥嘴潭淨水場新建統包工程(續)-每日施工數量表&amp;R&amp;"標楷體,標準"&amp;8第 &amp;P 頁 共 &amp;N 頁</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>